--- a/Data/EC/NIT-9006018001.xlsx
+++ b/Data/EC/NIT-9006018001.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{170D5AB1-069A-45A3-A247-3C5FCEAB3443}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AD7304DA-C659-4E9F-9A1F-82D404CEBF31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{A84C0BF6-B70C-4F0A-B5FB-08B3E0C816D9}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{210DAC0D-54FD-4908-A397-85C5D7337630}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -182,22 +182,22 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -397,23 +397,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -441,10 +441,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -497,7 +497,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECC892D3-50C8-1744-E949-3D46EDDCB537}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A369CA7-D9A1-DC1E-BE9E-8E1BC8D54B2C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -848,7 +848,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50A23284-E8FD-4C64-80A8-D4C10F5143D4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2273369-4A17-487B-9CD5-2C165D7A815B}">
   <dimension ref="B2:J24"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
